--- a/Fluid inclusions/Raman/Helper_file.xlsx
+++ b/Fluid inclusions/Raman/Helper_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Python dev\Kamaehu2024\Fluid inclusions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Python dev\Kamaehu2024\Fluid inclusions\Raman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE38FA8B-FC08-4A0C-B4B4-AC266953E7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB5624-CBF8-45BE-9A01-FFC16C8A5B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="1956" windowWidth="17280" windowHeight="8880" xr2:uid="{B0A3A503-D4E4-46DB-AD91-65A3D993093E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B0A3A503-D4E4-46DB-AD91-65A3D993093E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="643">
   <si>
     <t>filename</t>
   </si>
@@ -1863,6 +1863,108 @@
   </si>
   <si>
     <t>FG19-101-A-end</t>
+  </si>
+  <si>
+    <t>186-11-121-A</t>
+  </si>
+  <si>
+    <t>186-11-121-B</t>
+  </si>
+  <si>
+    <t>186-11-121-C</t>
+  </si>
+  <si>
+    <t>186-11-121-D-rep1</t>
+  </si>
+  <si>
+    <t>186-11-121-D-rep2</t>
+  </si>
+  <si>
+    <t>186-11-121-E</t>
+  </si>
+  <si>
+    <t>186-11-122-A</t>
+  </si>
+  <si>
+    <t>186-11-122-B</t>
+  </si>
+  <si>
+    <t>186-11-122-C-rep1</t>
+  </si>
+  <si>
+    <t>186-11-122-C-rep2</t>
+  </si>
+  <si>
+    <t>187-9-113-A</t>
+  </si>
+  <si>
+    <t>187-9-114-A-rep1</t>
+  </si>
+  <si>
+    <t>187-9-114-A-rep2</t>
+  </si>
+  <si>
+    <t>187-9-114-A-rep3</t>
+  </si>
+  <si>
+    <t>187-9-115-A</t>
+  </si>
+  <si>
+    <t>187-9-116-A</t>
+  </si>
+  <si>
+    <t>187-9-116-B-rep1</t>
+  </si>
+  <si>
+    <t>187-9-116-B-rep2</t>
+  </si>
+  <si>
+    <t>187-9-116-B-rep3</t>
+  </si>
+  <si>
+    <t>187-9-117-A</t>
+  </si>
+  <si>
+    <t>187-9-119-A</t>
+  </si>
+  <si>
+    <t>187-9-120-A</t>
+  </si>
+  <si>
+    <t>FG19-101-A-rep1</t>
+  </si>
+  <si>
+    <t>FG19-101-A-rep2</t>
+  </si>
+  <si>
+    <t>FG19-101-A-rep3</t>
+  </si>
+  <si>
+    <t>FG19-101-A-rep4</t>
+  </si>
+  <si>
+    <t>FG19-101-A-rep5</t>
+  </si>
+  <si>
+    <t>FG19-101-A-rep6</t>
+  </si>
+  <si>
+    <t>186-11-121-D</t>
+  </si>
+  <si>
+    <t>186-11-122-C</t>
+  </si>
+  <si>
+    <t>187-9-114-A</t>
+  </si>
+  <si>
+    <t>187-9-116-B</t>
+  </si>
+  <si>
+    <t>186-11</t>
+  </si>
+  <si>
+    <t>187-9</t>
   </si>
 </sst>
 </file>
@@ -2243,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630376EB-2731-45CE-A5DD-7E3BC10EA286}">
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B365" sqref="B365"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E371" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5901,7 +6003,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>241</v>
       </c>
@@ -5921,7 +6023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>438</v>
       </c>
@@ -5929,7 +6031,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>278</v>
       </c>
@@ -5949,7 +6051,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>279</v>
       </c>
@@ -5969,7 +6071,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>280</v>
       </c>
@@ -5989,7 +6091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>281</v>
       </c>
@@ -6009,7 +6111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>282</v>
       </c>
@@ -6029,7 +6131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>283</v>
       </c>
@@ -6049,7 +6151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>284</v>
       </c>
@@ -6069,7 +6171,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>285</v>
       </c>
@@ -6089,7 +6191,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>286</v>
       </c>
@@ -6109,7 +6211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>287</v>
       </c>
@@ -6129,7 +6231,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>288</v>
       </c>
@@ -6149,7 +6251,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>289</v>
       </c>
@@ -6169,7 +6271,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>290</v>
       </c>
@@ -6188,8 +6290,11 @@
       <c r="F207" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>291</v>
       </c>
@@ -9175,6 +9280,482 @@
         <v>101</v>
       </c>
       <c r="F368" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>609</v>
+      </c>
+      <c r="B369" t="s">
+        <v>609</v>
+      </c>
+      <c r="C369" t="s">
+        <v>641</v>
+      </c>
+      <c r="D369">
+        <v>121</v>
+      </c>
+      <c r="F369" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>610</v>
+      </c>
+      <c r="B370" t="s">
+        <v>610</v>
+      </c>
+      <c r="C370" t="s">
+        <v>641</v>
+      </c>
+      <c r="D370">
+        <v>121</v>
+      </c>
+      <c r="F370" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>611</v>
+      </c>
+      <c r="B371" t="s">
+        <v>611</v>
+      </c>
+      <c r="C371" t="s">
+        <v>641</v>
+      </c>
+      <c r="D371">
+        <v>121</v>
+      </c>
+      <c r="F371" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>612</v>
+      </c>
+      <c r="B372" t="s">
+        <v>637</v>
+      </c>
+      <c r="C372" t="s">
+        <v>641</v>
+      </c>
+      <c r="D372">
+        <v>121</v>
+      </c>
+      <c r="F372" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>613</v>
+      </c>
+      <c r="B373" t="s">
+        <v>637</v>
+      </c>
+      <c r="C373" t="s">
+        <v>641</v>
+      </c>
+      <c r="D373">
+        <v>121</v>
+      </c>
+      <c r="F373" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>614</v>
+      </c>
+      <c r="B374" t="s">
+        <v>614</v>
+      </c>
+      <c r="C374" t="s">
+        <v>641</v>
+      </c>
+      <c r="D374">
+        <v>121</v>
+      </c>
+      <c r="F374" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>615</v>
+      </c>
+      <c r="B375" t="s">
+        <v>615</v>
+      </c>
+      <c r="C375" t="s">
+        <v>641</v>
+      </c>
+      <c r="D375">
+        <v>122</v>
+      </c>
+      <c r="F375" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>616</v>
+      </c>
+      <c r="B376" t="s">
+        <v>616</v>
+      </c>
+      <c r="C376" t="s">
+        <v>641</v>
+      </c>
+      <c r="D376">
+        <v>122</v>
+      </c>
+      <c r="F376" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>617</v>
+      </c>
+      <c r="B377" t="s">
+        <v>638</v>
+      </c>
+      <c r="C377" t="s">
+        <v>641</v>
+      </c>
+      <c r="D377">
+        <v>122</v>
+      </c>
+      <c r="F377" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>618</v>
+      </c>
+      <c r="B378" t="s">
+        <v>638</v>
+      </c>
+      <c r="C378" t="s">
+        <v>641</v>
+      </c>
+      <c r="D378">
+        <v>122</v>
+      </c>
+      <c r="F378" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>619</v>
+      </c>
+      <c r="B379" t="s">
+        <v>619</v>
+      </c>
+      <c r="C379" t="s">
+        <v>642</v>
+      </c>
+      <c r="D379">
+        <v>113</v>
+      </c>
+      <c r="F379" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>620</v>
+      </c>
+      <c r="B380" t="s">
+        <v>639</v>
+      </c>
+      <c r="C380" t="s">
+        <v>642</v>
+      </c>
+      <c r="D380">
+        <v>114</v>
+      </c>
+      <c r="F380" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>621</v>
+      </c>
+      <c r="B381" t="s">
+        <v>639</v>
+      </c>
+      <c r="C381" t="s">
+        <v>642</v>
+      </c>
+      <c r="D381">
+        <v>114</v>
+      </c>
+      <c r="F381" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>622</v>
+      </c>
+      <c r="B382" t="s">
+        <v>639</v>
+      </c>
+      <c r="C382" t="s">
+        <v>642</v>
+      </c>
+      <c r="D382">
+        <v>114</v>
+      </c>
+      <c r="F382" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>623</v>
+      </c>
+      <c r="B383" t="s">
+        <v>623</v>
+      </c>
+      <c r="C383" t="s">
+        <v>642</v>
+      </c>
+      <c r="D383">
+        <v>115</v>
+      </c>
+      <c r="F383" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>624</v>
+      </c>
+      <c r="B384" t="s">
+        <v>624</v>
+      </c>
+      <c r="C384" t="s">
+        <v>642</v>
+      </c>
+      <c r="D384">
+        <v>116</v>
+      </c>
+      <c r="F384" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>625</v>
+      </c>
+      <c r="B385" t="s">
+        <v>640</v>
+      </c>
+      <c r="C385" t="s">
+        <v>642</v>
+      </c>
+      <c r="D385">
+        <v>116</v>
+      </c>
+      <c r="F385" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>626</v>
+      </c>
+      <c r="B386" t="s">
+        <v>640</v>
+      </c>
+      <c r="C386" t="s">
+        <v>642</v>
+      </c>
+      <c r="D386">
+        <v>116</v>
+      </c>
+      <c r="F386" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>627</v>
+      </c>
+      <c r="B387" t="s">
+        <v>640</v>
+      </c>
+      <c r="C387" t="s">
+        <v>642</v>
+      </c>
+      <c r="D387">
+        <v>116</v>
+      </c>
+      <c r="F387" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>628</v>
+      </c>
+      <c r="B388" t="s">
+        <v>628</v>
+      </c>
+      <c r="C388" t="s">
+        <v>642</v>
+      </c>
+      <c r="D388">
+        <v>117</v>
+      </c>
+      <c r="F388" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>629</v>
+      </c>
+      <c r="B389" t="s">
+        <v>629</v>
+      </c>
+      <c r="C389" t="s">
+        <v>642</v>
+      </c>
+      <c r="D389">
+        <v>119</v>
+      </c>
+      <c r="F389" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>630</v>
+      </c>
+      <c r="B390" t="s">
+        <v>630</v>
+      </c>
+      <c r="C390" t="s">
+        <v>642</v>
+      </c>
+      <c r="D390">
+        <v>120</v>
+      </c>
+      <c r="F390" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>631</v>
+      </c>
+      <c r="B391" t="s">
+        <v>607</v>
+      </c>
+      <c r="C391" t="s">
+        <v>543</v>
+      </c>
+      <c r="D391">
+        <v>101</v>
+      </c>
+      <c r="F391" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>632</v>
+      </c>
+      <c r="B392" t="s">
+        <v>607</v>
+      </c>
+      <c r="C392" t="s">
+        <v>543</v>
+      </c>
+      <c r="D392">
+        <v>101</v>
+      </c>
+      <c r="F392" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>633</v>
+      </c>
+      <c r="B393" t="s">
+        <v>607</v>
+      </c>
+      <c r="C393" t="s">
+        <v>543</v>
+      </c>
+      <c r="D393">
+        <v>101</v>
+      </c>
+      <c r="F393" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>634</v>
+      </c>
+      <c r="B394" t="s">
+        <v>608</v>
+      </c>
+      <c r="C394" t="s">
+        <v>543</v>
+      </c>
+      <c r="D394">
+        <v>101</v>
+      </c>
+      <c r="F394" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>635</v>
+      </c>
+      <c r="B395" t="s">
+        <v>608</v>
+      </c>
+      <c r="C395" t="s">
+        <v>543</v>
+      </c>
+      <c r="D395">
+        <v>101</v>
+      </c>
+      <c r="F395" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>636</v>
+      </c>
+      <c r="B396" t="s">
+        <v>608</v>
+      </c>
+      <c r="C396" t="s">
+        <v>543</v>
+      </c>
+      <c r="D396">
+        <v>101</v>
+      </c>
+      <c r="F396" t="s">
         <v>130</v>
       </c>
     </row>
